--- a/output_Balance_Sheet_DS/BRADLEY_UNIVERSITY.xlsx
+++ b/output_Balance_Sheet_DS/BRADLEY_UNIVERSITY.xlsx
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43482</v>
+        <v>43582</v>
       </c>
     </row>
     <row r="14">
